--- a/design_documents/APIサーバ設計書.xlsx
+++ b/design_documents/APIサーバ設計書.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextcloud\開発ノート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530920E-C76C-412A-816F-FEA683D0EF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4077A6D-F815-4880-84B8-8F06CCD00E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
   </bookViews>
   <sheets>
     <sheet name="エンドポイント一覧" sheetId="1" r:id="rId1"/>
     <sheet name="テンプレート" sheetId="3" r:id="rId2"/>
+    <sheet name="テンプレート (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>APIサーバ設計書</t>
     <rPh sb="6" eb="9">
@@ -99,20 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録画面</t>
-    <rPh sb="0" eb="6">
-      <t>シンキトウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>押下</t>
     <rPh sb="0" eb="2">
       <t>オウカ</t>
@@ -123,10 +110,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送信データ</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
@@ -145,26 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録情報の送信</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録処理実行結果</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクショリ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ジッコウケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正常時</t>
     <rPh sb="0" eb="3">
       <t>セイジョウジ</t>
@@ -176,6 +139,69 @@
     <rPh sb="0" eb="3">
       <t>イジョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/Login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報の送信</t>
+    <rPh sb="0" eb="4">
+      <t>ニンショウジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "name" : "test_user_1",
+  "password" : "password_test_user_1"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+"sessionId": "7"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各管理画面</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>okかng</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,16 +455,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +480,24 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,14 +558,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,25 +893,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCE4BA5-905E-43F2-A2B9-FC51CECDF400}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="30.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="33.75" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
@@ -885,24 +935,24 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
@@ -927,259 +977,275 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="F8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F29" s="9"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1198,21 +1264,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA9EDC6-E327-44BD-B8F5-11880A47A000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" style="19" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="23" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1235,62 +1302,62 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,2)</f>
-        <v>新規登録画面</v>
-      </c>
-      <c r="D4" s="3" t="str">
+        <v>ログイン</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,3)</f>
-        <v>登録ボタン</v>
-      </c>
-      <c r="E4" s="3" t="str">
+        <v>ログインボタン</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,4)</f>
         <v>押下</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="38" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,5)</f>
-        <v>user</v>
-      </c>
-      <c r="G4" s="3" t="str">
+        <v>api/Login</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,6)</f>
         <v>POST</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,7)</f>
-        <v>登録情報の送信</v>
-      </c>
-      <c r="I4" s="3" t="str">
+        <v>認証情報の送信</v>
+      </c>
+      <c r="I4" s="1" t="str">
         <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,8)</f>
-        <v>登録処理実行結果</v>
+        <v>セッションID</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1303,61 +1370,61 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1373,4 +1440,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F1A1C2-5EA5-4274-83F8-E1407B0A371A}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,2)</f>
+        <v>ログイン</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,3)</f>
+        <v>ログインボタン</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,4)</f>
+        <v>押下</v>
+      </c>
+      <c r="F4" s="38" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,5)</f>
+        <v>api/Login</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,6)</f>
+        <v>POST</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,7)</f>
+        <v>認証情報の送信</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,8)</f>
+        <v>セッションID</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B8:E1048576"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:H1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design_documents/APIサーバ設計書.xlsx
+++ b/design_documents/APIサーバ設計書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4077A6D-F815-4880-84B8-8F06CCD00E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232787A-BB43-40AA-9869-7A8881395245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
+    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
   </bookViews>
   <sheets>
-    <sheet name="エンドポイント一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="APIエンドポイント一覧" sheetId="1" r:id="rId1"/>
     <sheet name="テンプレート" sheetId="3" r:id="rId2"/>
-    <sheet name="テンプレート (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="api_Login" sheetId="4" r:id="rId3"/>
+    <sheet name="教科追加" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>APIサーバ設計書</t>
     <rPh sb="6" eb="9">
@@ -100,13 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>押下</t>
-    <rPh sb="0" eb="2">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -142,29 +136,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>api/Login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>認証情報の送信</t>
-    <rPh sb="0" eb="4">
-      <t>ニンショウジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -181,27 +153,124 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各管理画面</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カンリ</t>
+    <t>api/Subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>教科の更新</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウトボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>okかng</t>
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科の新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科の削除</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>教科追加</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科編集</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科削除</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hash,name,description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>追加した教科のデータを返す</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更した教科のデータを返す</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除した教科のデータを返す</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +567,39 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,21 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -896,25 +983,25 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9" style="36"/>
-    <col min="3" max="3" width="30.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="33.75" style="36" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="30.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="16" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="36.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -924,7 +1011,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -934,29 +1021,29 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -966,7 +1053,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -976,7 +1063,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1001,100 +1088,137 @@
       <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="H10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1103,8 +1227,11 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1113,8 +1240,11 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1123,8 +1253,11 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1133,8 +1266,11 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1143,8 +1279,11 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1153,8 +1292,11 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1163,98 +1305,104 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F29" s="35"/>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{5810574C-3F9B-4093-95F0-9E7E970182EB}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G1048576 G8:G11" xr:uid="{5810574C-3F9B-4093-95F0-9E7E970182EB}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J20" xr:uid="{6943E670-31C1-4AD3-9C25-C0FE3BAD15DA}">
+      <formula1>"未着手,進行中,完了,修正中,修正済み,要修正"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1273,13 +1421,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="34" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="34" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1331,33 +1479,33 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,2)</f>
-        <v>ログイン</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,3)</f>
-        <v>ログインボタン</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,4)</f>
-        <v>押下</v>
-      </c>
-      <c r="F4" s="38" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,5)</f>
+      <c r="C4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,5)</f>
         <v>api/Login</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,6)</f>
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,6)</f>
         <v>POST</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,7)</f>
-        <v>認証情報の送信</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,8)</f>
-        <v>セッションID</v>
+      <c r="H4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,7)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1370,61 +1518,61 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="24" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1453,13 +1601,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="34" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="34" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1511,33 +1659,33 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,2)</f>
-        <v>ログイン</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,3)</f>
-        <v>ログインボタン</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,4)</f>
-        <v>押下</v>
-      </c>
-      <c r="F4" s="38" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,5)</f>
+      <c r="C4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,5)</f>
         <v>api/Login</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,6)</f>
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,6)</f>
         <v>POST</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,7)</f>
-        <v>認証情報の送信</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f>VLOOKUP($B$4,エンドポイント一覧!$B$8:$I$1048576,8)</f>
-        <v>セッションID</v>
+      <c r="H4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,7)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1550,65 +1698,244 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="B8:E1048576"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:H1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DAC09-53B1-41C5-BEFB-E9300236FF6B}">
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.75" style="34" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="34" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,2)</f>
+        <v>教科追加</v>
+      </c>
+      <c r="D4" s="1">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,4)</f>
+        <v>教科の新規作成</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,5)</f>
+        <v>api/Subject</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,6)</f>
+        <v>POST</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,7)</f>
+        <v>hash,name,description</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>VLOOKUP($B$4,APIエンドポイント一覧!$B$8:$I$1048576,8)</f>
+        <v>追加した教科のデータを返す</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="24" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F12" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/design_documents/APIサーバ設計書.xlsx
+++ b/design_documents/APIサーバ設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seiya\Documents\VSdir\independent_learning_system\design_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232787A-BB43-40AA-9869-7A8881395245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B5643E-9B5C-4238-8DE6-A62AE4DA0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
+    <workbookView xWindow="7395" yWindow="450" windowWidth="21405" windowHeight="15750" xr2:uid="{E5772A7E-4CA5-465E-B29E-7954954EF471}"/>
   </bookViews>
   <sheets>
     <sheet name="APIエンドポイント一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>APIサーバ設計書</t>
     <rPh sb="6" eb="9">
@@ -271,6 +271,14 @@
     <rPh sb="11" eb="12">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/Problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/User</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -986,7 +994,7 @@
   <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1162,7 +1170,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1189,7 +1197,7 @@
         <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1197,8 +1205,12 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="1" t="s">
@@ -1211,7 +1223,9 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="1" t="s">
@@ -1224,7 +1238,9 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="1" t="s">
@@ -1236,8 +1252,12 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="1" t="s">
@@ -1250,7 +1270,9 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="1" t="s">
@@ -1263,7 +1285,9 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="1" t="s">
@@ -1398,7 +1422,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G1048576 G8:G11" xr:uid="{5810574C-3F9B-4093-95F0-9E7E970182EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{5810574C-3F9B-4093-95F0-9E7E970182EB}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J20" xr:uid="{6943E670-31C1-4AD3-9C25-C0FE3BAD15DA}">
